--- a/data/trans_orig/P36B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22629</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15841</v>
+        <v>14650</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34194</v>
+        <v>34065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04580123344274201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03206360588630689</v>
+        <v>0.02965184902154611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06920949555990807</v>
+        <v>0.06894864617046394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -764,19 +764,19 @@
         <v>17335</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9726</v>
+        <v>10761</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26282</v>
+        <v>26584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03716435430117628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02085230765901427</v>
+        <v>0.02307100666454984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05634716217349026</v>
+        <v>0.05699566898017042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -785,19 +785,19 @@
         <v>39963</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29166</v>
+        <v>28086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54688</v>
+        <v>52454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04160704132301109</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03036544092644637</v>
+        <v>0.02924121356452553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05693759708075985</v>
+        <v>0.05461167596943506</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>67532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53384</v>
+        <v>53334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83258</v>
+        <v>83112</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1366864639887799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1080512324013173</v>
+        <v>0.1079494936500557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1685173136482848</v>
+        <v>0.1682209803588789</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -835,19 +835,19 @@
         <v>48514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36477</v>
+        <v>36535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61429</v>
+        <v>61693</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1040116080999631</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07820570786774211</v>
+        <v>0.07832928114143514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1317005999002404</v>
+        <v>0.1322660646329402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -856,19 +856,19 @@
         <v>116046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>95902</v>
+        <v>96712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137151</v>
+        <v>136357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1208190863358173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09984714929634546</v>
+        <v>0.1006901560372443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1427919424835613</v>
+        <v>0.1419661121708916</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>157014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>136361</v>
+        <v>136932</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>176502</v>
+        <v>177368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3178000522269719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2759988087853176</v>
+        <v>0.2771545537142197</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.357244655266881</v>
+        <v>0.358998895790332</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -906,19 +906,19 @@
         <v>154302</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136606</v>
+        <v>135113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175221</v>
+        <v>174119</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3308148325856087</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2928767312734569</v>
+        <v>0.289674886196514</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3756643775170281</v>
+        <v>0.373302630512946</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>323</v>
@@ -927,19 +927,19 @@
         <v>311315</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>285145</v>
+        <v>284085</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>339385</v>
+        <v>339560</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3241202158330042</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2968734865286253</v>
+        <v>0.2957699459176546</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3533448201549101</v>
+        <v>0.3535271349885304</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>196517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178839</v>
+        <v>177143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>220785</v>
+        <v>217707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3977567677731135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3619756117559932</v>
+        <v>0.3585431185433459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4468758989915014</v>
+        <v>0.4406461814445933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>176</v>
@@ -977,19 +977,19 @@
         <v>168546</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148413</v>
+        <v>148465</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>189430</v>
+        <v>189659</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3613549258547472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3181906858637337</v>
+        <v>0.3183011339549026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4061290602330389</v>
+        <v>0.4066200531429906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>375</v>
@@ -998,19 +998,19 @@
         <v>365064</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>334929</v>
+        <v>337296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>393230</v>
+        <v>393174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3800795123646252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3487053623366309</v>
+        <v>0.3511698353183866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4094047138858939</v>
+        <v>0.4093463120857586</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>50373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37154</v>
+        <v>38670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65310</v>
+        <v>68208</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1019554825683926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0751997923513185</v>
+        <v>0.07826974810476377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1321902318109879</v>
+        <v>0.1380545864125351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1048,19 +1048,19 @@
         <v>77732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62158</v>
+        <v>61301</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93591</v>
+        <v>93850</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1666542791585048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1332637316952663</v>
+        <v>0.131426038804127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2006539903516746</v>
+        <v>0.2012091795503516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>129</v>
@@ -1069,19 +1069,19 @@
         <v>128105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107645</v>
+        <v>108511</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148879</v>
+        <v>151031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1333741441435422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1120731395495735</v>
+        <v>0.1129740917741373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1550023295546814</v>
+        <v>0.1572435037301769</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>21642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14471</v>
+        <v>13406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32875</v>
+        <v>31662</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02942595913255449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0196759933133647</v>
+        <v>0.01822773005928015</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04469841245621471</v>
+        <v>0.04304933502905655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1194,19 +1194,19 @@
         <v>12839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6871</v>
+        <v>6900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23076</v>
+        <v>21466</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02052570627336814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01098535645881318</v>
+        <v>0.01103110427179763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03689226779410332</v>
+        <v>0.03431789697713741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1215,19 +1215,19 @@
         <v>34481</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24897</v>
+        <v>24311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47779</v>
+        <v>47654</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02533549254583278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01829346865540091</v>
+        <v>0.01786268458761472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03510644083245375</v>
+        <v>0.03501471430911278</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>64605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50391</v>
+        <v>48952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82367</v>
+        <v>83675</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08783979029889503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06851352213713598</v>
+        <v>0.06655655949593395</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1119890879096225</v>
+        <v>0.1137674640610322</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1265,19 +1265,19 @@
         <v>31325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21409</v>
+        <v>20865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43790</v>
+        <v>43670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05008086683245663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03422702945407452</v>
+        <v>0.03335720206138561</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07000844497280587</v>
+        <v>0.06981738867487376</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>89</v>
@@ -1286,19 +1286,19 @@
         <v>95930</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76998</v>
+        <v>78029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>117046</v>
+        <v>117744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07048616931377522</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05657562024158967</v>
+        <v>0.05733303916412039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08600132606968536</v>
+        <v>0.08651388634218744</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>193536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168607</v>
+        <v>171125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>217003</v>
+        <v>219285</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2631392336082851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2292449377063919</v>
+        <v>0.2326681998633051</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2950464782225508</v>
+        <v>0.2981486091494466</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>145</v>
@@ -1336,19 +1336,19 @@
         <v>149270</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>129690</v>
+        <v>128916</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>172368</v>
+        <v>173627</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2386430099794166</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2073401482416425</v>
+        <v>0.2061023661269585</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2755709860752599</v>
+        <v>0.2775837959676863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>336</v>
@@ -1357,19 +1357,19 @@
         <v>342806</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>311061</v>
+        <v>311452</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>377687</v>
+        <v>375443</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2518810159104219</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2285565048710026</v>
+        <v>0.228843929037671</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2775106424444912</v>
+        <v>0.2758615316837732</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>336329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>307604</v>
+        <v>306991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>362546</v>
+        <v>363027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4572864114310647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4182312288581432</v>
+        <v>0.4173967994940206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4929319529545309</v>
+        <v>0.4935852950495805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -1407,19 +1407,19 @@
         <v>278799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252487</v>
+        <v>252687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301957</v>
+        <v>305675</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.445726707272234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4036599635835371</v>
+        <v>0.4039805317870436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.482749083639253</v>
+        <v>0.488693201283435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>581</v>
@@ -1428,19 +1428,19 @@
         <v>615128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>576927</v>
+        <v>579534</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>653259</v>
+        <v>656107</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.451973687808243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4239051462229755</v>
+        <v>0.4258205573223916</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4799907168087845</v>
+        <v>0.4820833156945054</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>119376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100679</v>
+        <v>99993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141231</v>
+        <v>141650</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1623086055292007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1368874901112138</v>
+        <v>0.1359550949983805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1920238829204968</v>
+        <v>0.1925936161893509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -1478,19 +1478,19 @@
         <v>153261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132463</v>
+        <v>131082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175013</v>
+        <v>175080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2450237096425247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2117732305557185</v>
+        <v>0.2095662433716215</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2797997047140285</v>
+        <v>0.2799073180167332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>254</v>
@@ -1499,19 +1499,19 @@
         <v>272637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>245402</v>
+        <v>240795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305375</v>
+        <v>301092</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2003236344217271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1803127524297976</v>
+        <v>0.1769274671763202</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2243787428932958</v>
+        <v>0.2212311168361589</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>11569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5982</v>
+        <v>5799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20364</v>
+        <v>19891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01811484327343026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009365983927527173</v>
+        <v>0.009079873423342565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03188587284608466</v>
+        <v>0.03114486006829317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>3952</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9068</v>
+        <v>10772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005729158128116161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00147882059561391</v>
+        <v>0.001493532600802889</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01314745463818611</v>
+        <v>0.01561789005202732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1645,19 +1645,19 @@
         <v>15521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8935</v>
+        <v>9353</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25565</v>
+        <v>25822</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01168388946531439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006725880491149134</v>
+        <v>0.007040621642987618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0192446406459725</v>
+        <v>0.01943850178028446</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>40098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27869</v>
+        <v>28828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53988</v>
+        <v>55880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06278340660339481</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04363537514613237</v>
+        <v>0.04513774634520438</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08453156360148205</v>
+        <v>0.08749509747915965</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1695,19 +1695,19 @@
         <v>17552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10202</v>
+        <v>10649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26706</v>
+        <v>26500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02544736558117838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01479049224419611</v>
+        <v>0.01543927541364301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0387190754441625</v>
+        <v>0.03841982393018525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -1716,19 +1716,19 @@
         <v>57650</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44533</v>
+        <v>43471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76659</v>
+        <v>76258</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04339761143948068</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03352319233456032</v>
+        <v>0.03272370039440804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05770719428169849</v>
+        <v>0.057405271617443</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>195014</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173165</v>
+        <v>170174</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>221473</v>
+        <v>218563</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3053451318286158</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2711353827887963</v>
+        <v>0.2664516459461343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3467725091418747</v>
+        <v>0.3422163554409502</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>165</v>
@@ -1766,19 +1766,19 @@
         <v>169799</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>149580</v>
+        <v>146534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>193334</v>
+        <v>191224</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2461772427643381</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2168630504711251</v>
+        <v>0.2124472014728862</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2802985459399808</v>
+        <v>0.2772397815486329</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>349</v>
@@ -1787,19 +1787,19 @@
         <v>364813</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>332782</v>
+        <v>331821</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>402778</v>
+        <v>397397</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2746237016427329</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2505114060695125</v>
+        <v>0.2497878766496948</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3032026372598489</v>
+        <v>0.299152020539043</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>264838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>237221</v>
+        <v>238690</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>288118</v>
+        <v>289683</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4146728591784752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3714313400295619</v>
+        <v>0.3737313723101772</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4511225364743706</v>
+        <v>0.453573226114639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>306</v>
@@ -1837,19 +1837,19 @@
         <v>320247</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>293873</v>
+        <v>293460</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>345085</v>
+        <v>347607</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4642987831339258</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4260603493867932</v>
+        <v>0.4254622351153279</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5003088803458056</v>
+        <v>0.503965637970661</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>561</v>
@@ -1858,19 +1858,19 @@
         <v>585086</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>548777</v>
+        <v>548360</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>624618</v>
+        <v>619602</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4404398652744856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4131074668608657</v>
+        <v>0.4127935415475643</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4701988140817199</v>
+        <v>0.466423117762127</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>127148</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106994</v>
+        <v>108161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147608</v>
+        <v>149499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1990837591160839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1675274503817018</v>
+        <v>0.1693542990423821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2311189443887265</v>
+        <v>0.234079943628961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -1908,19 +1908,19 @@
         <v>178194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153563</v>
+        <v>155173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>201569</v>
+        <v>201726</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2583474503924416</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2226370115952375</v>
+        <v>0.224971637561754</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2922373369505305</v>
+        <v>0.2924652533222658</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>290</v>
@@ -1929,19 +1929,19 @@
         <v>305342</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>273295</v>
+        <v>275213</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>337839</v>
+        <v>339237</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2298549321779864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2057306626503828</v>
+        <v>0.2071746436590754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.25431756344184</v>
+        <v>0.2553702392066793</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>8566</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3805</v>
+        <v>3908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17204</v>
+        <v>16195</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01649968989403865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00732956905969364</v>
+        <v>0.007528422781067298</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03313924133567753</v>
+        <v>0.03119480840414862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2067,19 +2067,19 @@
         <v>8566</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3917</v>
+        <v>3781</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17258</v>
+        <v>17203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008277788944282811</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003785618778449373</v>
+        <v>0.003654041008427415</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01667734301535339</v>
+        <v>0.01662477028094313</v>
       </c>
     </row>
     <row r="23">
@@ -2096,19 +2096,19 @@
         <v>28210</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19569</v>
+        <v>19149</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>41042</v>
+        <v>40005</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0543382524726739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0376950043744027</v>
+        <v>0.03688471421899808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0790571233643869</v>
+        <v>0.07705951656468749</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2117,19 +2117,19 @@
         <v>17261</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9851</v>
+        <v>10014</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27486</v>
+        <v>27650</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03347451612893298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01910476000648585</v>
+        <v>0.0194197599681594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05330431521249731</v>
+        <v>0.05362341268831702</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -2138,19 +2138,19 @@
         <v>45470</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32882</v>
+        <v>33310</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59804</v>
+        <v>60819</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04394171927952363</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.031776199964019</v>
+        <v>0.03219061269330434</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05779355782848302</v>
+        <v>0.05877416197967976</v>
       </c>
     </row>
     <row r="24">
@@ -2167,19 +2167,19 @@
         <v>148006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>127697</v>
+        <v>127691</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>170248</v>
+        <v>169685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2850939594877672</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2459742096417109</v>
+        <v>0.2459635983478888</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3279379531603306</v>
+        <v>0.326852639566269</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>99</v>
@@ -2188,19 +2188,19 @@
         <v>100512</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83281</v>
+        <v>84425</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>120831</v>
+        <v>121292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1949262530282214</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1615094096078795</v>
+        <v>0.1637279499441019</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2343304722629714</v>
+        <v>0.2352259552894144</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>234</v>
@@ -2209,19 +2209,19 @@
         <v>248518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>219760</v>
+        <v>221698</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>275432</v>
+        <v>282124</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2401628149548693</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2123718920865529</v>
+        <v>0.2142445909949212</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2661724929991101</v>
+        <v>0.2726388052179147</v>
       </c>
     </row>
     <row r="25">
@@ -2238,19 +2238,19 @@
         <v>208884</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>184069</v>
+        <v>184108</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>231485</v>
+        <v>231189</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4023594499942357</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3545596153769755</v>
+        <v>0.3546356067225159</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4458939504517118</v>
+        <v>0.4453249127502135</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>220</v>
@@ -2259,19 +2259,19 @@
         <v>224531</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>202026</v>
+        <v>202841</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>247766</v>
+        <v>246027</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4354402598875345</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3917960469488951</v>
+        <v>0.3933755953943246</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4804993088539936</v>
+        <v>0.4771273728684052</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>416</v>
@@ -2280,19 +2280,19 @@
         <v>433415</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>400309</v>
+        <v>404451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>466556</v>
+        <v>469286</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4188438290357276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3868507475200548</v>
+        <v>0.3908536330709318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4508702403089037</v>
+        <v>0.4535091432473659</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>125482</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>107238</v>
+        <v>106264</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144674</v>
+        <v>146383</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2417086481512845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2065660518755098</v>
+        <v>0.204689082200894</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2786755110419215</v>
+        <v>0.2819687966433614</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -2330,19 +2330,19 @@
         <v>173338</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152637</v>
+        <v>151348</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>195037</v>
+        <v>195018</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3361589709553111</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2960129182805396</v>
+        <v>0.2935135888146193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3782404389914575</v>
+        <v>0.37820482658819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>285</v>
@@ -2351,19 +2351,19 @@
         <v>298820</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>269543</v>
+        <v>269696</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>328416</v>
+        <v>326773</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2887738477855967</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2604808279929476</v>
+        <v>0.2606287683777128</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3173747392732214</v>
+        <v>0.3157873028755404</v>
       </c>
     </row>
     <row r="27">
@@ -2455,19 +2455,19 @@
         <v>6666</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2846</v>
+        <v>2838</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13234</v>
+        <v>13249</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01727584746050929</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007374544142524224</v>
+        <v>0.007354209901161939</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03429487931932636</v>
+        <v>0.03433518040162736</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7031</v>
+        <v>6892</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005592162475662143</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01740385969015569</v>
+        <v>0.0170592672969707</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2497,19 +2497,19 @@
         <v>8925</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3932</v>
+        <v>4174</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15634</v>
+        <v>15775</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01130006283620658</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004978604581969144</v>
+        <v>0.005284723683304135</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0197932286318659</v>
+        <v>0.01997156549898142</v>
       </c>
     </row>
     <row r="29">
@@ -2526,19 +2526,19 @@
         <v>14030</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7361</v>
+        <v>7957</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21810</v>
+        <v>22567</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03635784456887412</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01907706900967009</v>
+        <v>0.02061960925697633</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05651974552082559</v>
+        <v>0.05848358942255547</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2547,19 +2547,19 @@
         <v>12322</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6045</v>
+        <v>6270</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19867</v>
+        <v>20502</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03050037193455402</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0149630449659867</v>
+        <v>0.01552111691637735</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04917858971487372</v>
+        <v>0.05075035286863385</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -2568,19 +2568,19 @@
         <v>26351</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18109</v>
+        <v>18176</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37846</v>
+        <v>39270</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03336195800133655</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02292728833142665</v>
+        <v>0.02301146214255798</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04791504782601121</v>
+        <v>0.04971753009583167</v>
       </c>
     </row>
     <row r="30">
@@ -2597,19 +2597,19 @@
         <v>93445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>79013</v>
+        <v>78426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>111607</v>
+        <v>111518</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.242162784915182</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2047631465239315</v>
+        <v>0.20324077020846</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2892302455478307</v>
+        <v>0.2889993772024871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>87</v>
@@ -2618,19 +2618,19 @@
         <v>88657</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>73462</v>
+        <v>72751</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>106720</v>
+        <v>104685</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.219455653278312</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1818435327987347</v>
+        <v>0.1800837687897185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2641676147782237</v>
+        <v>0.2591303290220866</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>181</v>
@@ -2639,19 +2639,19 @@
         <v>182102</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>159848</v>
+        <v>157990</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>207334</v>
+        <v>203959</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2305489038259872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2023742320864609</v>
+        <v>0.2000222993459766</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2624939031451504</v>
+        <v>0.2582209659045264</v>
       </c>
     </row>
     <row r="31">
@@ -2668,19 +2668,19 @@
         <v>159567</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>140186</v>
+        <v>141015</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>178138</v>
+        <v>178760</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4135197447742536</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3632919265843177</v>
+        <v>0.3654414209398726</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4616447833195356</v>
+        <v>0.4632567179342231</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>172</v>
@@ -2689,19 +2689,19 @@
         <v>176342</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154411</v>
+        <v>156701</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>194553</v>
+        <v>197168</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4365050956151911</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.382218043435717</v>
+        <v>0.3878869493230347</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4815840581898639</v>
+        <v>0.4880566377372592</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>336</v>
@@ -2710,19 +2710,19 @@
         <v>335909</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>308558</v>
+        <v>307782</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>362345</v>
+        <v>366809</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4252759249791819</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3906476949500864</v>
+        <v>0.3896656613640809</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4587449462549118</v>
+        <v>0.4643967178853106</v>
       </c>
     </row>
     <row r="32">
@@ -2739,19 +2739,19 @@
         <v>112168</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95076</v>
+        <v>95378</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>131742</v>
+        <v>129805</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2906837782811809</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2463910673962301</v>
+        <v>0.2471722845944861</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3414097876816481</v>
+        <v>0.3363910559218017</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>123</v>
@@ -2760,19 +2760,19 @@
         <v>124406</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>106642</v>
+        <v>106952</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>143066</v>
+        <v>142942</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3079467166962808</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2639735818152125</v>
+        <v>0.264741764836605</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3541367885901009</v>
+        <v>0.3538296959070967</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>234</v>
@@ -2781,19 +2781,19 @@
         <v>236574</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>211736</v>
+        <v>212280</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>262701</v>
+        <v>261143</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2995131503572878</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2680675557233854</v>
+        <v>0.268756335110889</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3325909230751544</v>
+        <v>0.3306187696393617</v>
       </c>
     </row>
     <row r="33">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4288</v>
+        <v>4640</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002629681877676187</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01465636134532178</v>
+        <v>0.01586043502638705</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2906,19 +2906,19 @@
         <v>4067</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1151</v>
+        <v>984</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10473</v>
+        <v>9830</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0118592496605094</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003357449206935185</v>
+        <v>0.00286871237535439</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03053849733221093</v>
+        <v>0.02866499720867801</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2927,19 +2927,19 @@
         <v>4836</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11430</v>
+        <v>10708</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007610087740568783</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002642944399866427</v>
+        <v>0.002627680060063444</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01798502744879795</v>
+        <v>0.01684943084208462</v>
       </c>
     </row>
     <row r="35">
@@ -2956,19 +2956,19 @@
         <v>8580</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3969</v>
+        <v>4417</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15616</v>
+        <v>16040</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02932413108951476</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01356463005622275</v>
+        <v>0.01509792161291041</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05337223492574378</v>
+        <v>0.05482215692373749</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -2977,19 +2977,19 @@
         <v>9246</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4643</v>
+        <v>4862</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16708</v>
+        <v>16178</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02696195601128963</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01353953938039979</v>
+        <v>0.0141762810720833</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04872039250767888</v>
+        <v>0.0471745973568039</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>19</v>
@@ -2998,19 +2998,19 @@
         <v>17826</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10825</v>
+        <v>11036</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26959</v>
+        <v>27365</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02804946786740234</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01703395297205075</v>
+        <v>0.01736487523210305</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04242107114975729</v>
+        <v>0.04306011564803244</v>
       </c>
     </row>
     <row r="36">
@@ -3027,19 +3027,19 @@
         <v>70736</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56813</v>
+        <v>56912</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>86133</v>
+        <v>86039</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2417646692987667</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1941764911000875</v>
+        <v>0.1945165270050461</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2943893297876609</v>
+        <v>0.2940655593544045</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>66</v>
@@ -3048,19 +3048,19 @@
         <v>61726</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>49579</v>
+        <v>48697</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>76781</v>
+        <v>76057</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1799950793241302</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1445741206337907</v>
+        <v>0.1419996432971535</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2238957216698139</v>
+        <v>0.2217837263141521</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>140</v>
@@ -3069,19 +3069,19 @@
         <v>132463</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>113075</v>
+        <v>114660</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>151757</v>
+        <v>152290</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2084329212368097</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.177926731515044</v>
+        <v>0.1804199804401649</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2387933998030186</v>
+        <v>0.2396310973674808</v>
       </c>
     </row>
     <row r="37">
@@ -3098,19 +3098,19 @@
         <v>129562</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>112933</v>
+        <v>113632</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>144936</v>
+        <v>147207</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4428226302745372</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3859876406616445</v>
+        <v>0.3883742120934822</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4953684875790423</v>
+        <v>0.5031296883138942</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>159</v>
@@ -3119,19 +3119,19 @@
         <v>145622</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>128683</v>
+        <v>128648</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>164171</v>
+        <v>161620</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4246370105331201</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3752416279615678</v>
+        <v>0.3751398086993147</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4787244813563201</v>
+        <v>0.4712853908214353</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>293</v>
@@ -3140,19 +3140,19 @@
         <v>275185</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>250782</v>
+        <v>251909</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>299855</v>
+        <v>298215</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.433009411572254</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3946117543004206</v>
+        <v>0.3963851285554061</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4718282185303662</v>
+        <v>0.4692481580700715</v>
       </c>
     </row>
     <row r="38">
@@ -3169,19 +3169,19 @@
         <v>82935</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>69831</v>
+        <v>68733</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>101743</v>
+        <v>98007</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2834588874595052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2386720236899303</v>
+        <v>0.2349170628649056</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3477393390612157</v>
+        <v>0.334970042424423</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>132</v>
@@ -3190,19 +3190,19 @@
         <v>122272</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>105090</v>
+        <v>106562</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>139068</v>
+        <v>139320</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3565467044709507</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.306445008085527</v>
+        <v>0.3107353361550962</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.405522957495046</v>
+        <v>0.4062603531567718</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>217</v>
@@ -3211,19 +3211,19 @@
         <v>205207</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>183435</v>
+        <v>182812</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>229504</v>
+        <v>226885</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3228981115829651</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2886397075596472</v>
+        <v>0.2876589829307132</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3611299433920377</v>
+        <v>0.3570083978092645</v>
       </c>
     </row>
     <row r="39">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5208</v>
+        <v>4752</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00492916584934518</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0248131979518571</v>
+        <v>0.02264015009258775</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6051</v>
+        <v>5638</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003368704092762497</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0181213305595984</v>
+        <v>0.01688520940827271</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3360,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7469</v>
+        <v>6586</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003970984023813072</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>7.781186529114416e-08</v>
+        <v>7.682863750398331e-08</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0137357541226924</v>
+        <v>0.01211050026228477</v>
       </c>
     </row>
     <row r="41">
@@ -3386,19 +3386,19 @@
         <v>4684</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1778</v>
+        <v>1814</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10468</v>
+        <v>10898</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02231573362983214</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008469378097356555</v>
+        <v>0.008645113734259805</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04987668851998395</v>
+        <v>0.05192569459494263</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3407,19 +3407,19 @@
         <v>10337</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4695</v>
+        <v>4603</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19364</v>
+        <v>17631</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.030958843596129</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01406188578453333</v>
+        <v>0.01378570891663028</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05799054565886532</v>
+        <v>0.05280272802785314</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>14</v>
@@ -3428,19 +3428,19 @@
         <v>15021</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>8517</v>
+        <v>8474</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24465</v>
+        <v>24602</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02762292610080781</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01566247611404064</v>
+        <v>0.01558307255010426</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04499038418180355</v>
+        <v>0.04524162942342019</v>
       </c>
     </row>
     <row r="42">
@@ -3457,19 +3457,19 @@
         <v>46214</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>35168</v>
+        <v>36236</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>59145</v>
+        <v>59171</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2201900194178093</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1675592472656582</v>
+        <v>0.1726496273605475</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2818015683088035</v>
+        <v>0.2819229919639827</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>54</v>
@@ -3478,19 +3478,19 @@
         <v>64167</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>49978</v>
+        <v>49471</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>80714</v>
+        <v>81930</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1921694901557528</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1496751530447276</v>
+        <v>0.14815740977792</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2417267473102703</v>
+        <v>0.2453684593015741</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>102</v>
@@ -3499,19 +3499,19 @@
         <v>110381</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>91552</v>
+        <v>90934</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>130260</v>
+        <v>130684</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2029843674577829</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1683596576473445</v>
+        <v>0.1672223198128108</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2395403299518603</v>
+        <v>0.2403210172921937</v>
       </c>
     </row>
     <row r="43">
@@ -3528,19 +3528,19 @@
         <v>88732</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>77358</v>
+        <v>75489</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>102787</v>
+        <v>104383</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4227666594000709</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3685758095980504</v>
+        <v>0.3596736185153311</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4897338270883393</v>
+        <v>0.4973375716350605</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>128</v>
@@ -3549,19 +3549,19 @@
         <v>146119</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>127250</v>
+        <v>126013</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>165161</v>
+        <v>164878</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4376032674158621</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3810935396120951</v>
+        <v>0.3773878337560068</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4946294926404921</v>
+        <v>0.4937813312228297</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>221</v>
@@ -3570,19 +3570,19 @@
         <v>234851</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>212100</v>
+        <v>214188</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>261252</v>
+        <v>260401</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4318768910948275</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3900399154865165</v>
+        <v>0.3938786192804684</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4804271247395017</v>
+        <v>0.4788615839479031</v>
       </c>
     </row>
     <row r="44">
@@ -3599,19 +3599,19 @@
         <v>69219</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>56562</v>
+        <v>56172</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>83856</v>
+        <v>83317</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3297984217029424</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2694921949341236</v>
+        <v>0.2676344753007766</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3995348879277574</v>
+        <v>0.3969696704613033</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>98</v>
@@ -3620,19 +3620,19 @@
         <v>112160</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>95618</v>
+        <v>95731</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>131896</v>
+        <v>130646</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3358996947394936</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2863590935600659</v>
+        <v>0.2866980487302437</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3950077552748192</v>
+        <v>0.3912644278785261</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>170</v>
@@ -3641,19 +3641,19 @@
         <v>181379</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>160650</v>
+        <v>158779</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>206838</v>
+        <v>203859</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3335448313227687</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2954258632777654</v>
+        <v>0.2919848540092346</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3803632017979069</v>
+        <v>0.3748851996047929</v>
       </c>
     </row>
     <row r="45">
@@ -3745,19 +3745,19 @@
         <v>72877</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>57388</v>
+        <v>57058</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>91830</v>
+        <v>90849</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02224758188668367</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01751937327724724</v>
+        <v>0.01741866342211635</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02803366066549823</v>
+        <v>0.02773423531789415</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>41</v>
@@ -3766,19 +3766,19 @@
         <v>41576</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>30512</v>
+        <v>30379</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>55415</v>
+        <v>57182</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01230732420657574</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0090322567068701</v>
+        <v>0.008992883038614083</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01640391561454857</v>
+        <v>0.01692702326660054</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>115</v>
@@ -3787,19 +3787,19 @@
         <v>114452</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>92428</v>
+        <v>94452</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>135847</v>
+        <v>134877</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01720094377874818</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01389083863412923</v>
+        <v>0.01419510234584898</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02041631669812656</v>
+        <v>0.02027057963323004</v>
       </c>
     </row>
     <row r="47">
@@ -3816,19 +3816,19 @@
         <v>227737</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>201802</v>
+        <v>201239</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>257842</v>
+        <v>257855</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06952306609342807</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06160556891666689</v>
+        <v>0.06143376083134019</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07871342143293031</v>
+        <v>0.07871742106184386</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>143</v>
@@ -3837,19 +3837,19 @@
         <v>146558</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>124013</v>
+        <v>122715</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>172687</v>
+        <v>169042</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04338416658841816</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03671036456833505</v>
+        <v>0.03632615217810829</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05111895993243583</v>
+        <v>0.05004015338444891</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>367</v>
@@ -3858,19 +3858,19 @@
         <v>374295</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>335073</v>
+        <v>341554</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>413261</v>
+        <v>413717</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05625242758619303</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05035784867796158</v>
+        <v>0.05133174000452867</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06210858855591012</v>
+        <v>0.06217716048490731</v>
       </c>
     </row>
     <row r="48">
@@ -3887,19 +3887,19 @@
         <v>903964</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>855846</v>
+        <v>850740</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>955460</v>
+        <v>953208</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2759598947438901</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2612703604668042</v>
+        <v>0.259711628170563</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2916804788581751</v>
+        <v>0.290992802895282</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>780</v>
@@ -3908,19 +3908,19 @@
         <v>788433</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>737195</v>
+        <v>741173</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>837713</v>
+        <v>836185</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2333929152320065</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2182252385607393</v>
+        <v>0.2194027696530869</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2479808690434957</v>
+        <v>0.2475283617997255</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1665</v>
@@ -3929,19 +3929,19 @@
         <v>1692398</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1624858</v>
+        <v>1620670</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1767591</v>
+        <v>1758087</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2543487707813523</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2441982682669872</v>
+        <v>0.2435688181775571</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2656494061193888</v>
+        <v>0.2642211993156313</v>
       </c>
     </row>
     <row r="49">
@@ -3958,19 +3958,19 @@
         <v>1384429</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1333699</v>
+        <v>1330762</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1442273</v>
+        <v>1445909</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.422634987314263</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4071480844351833</v>
+        <v>0.4062514777558484</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4402932889728612</v>
+        <v>0.4414035002830224</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1424</v>
@@ -3979,19 +3979,19 @@
         <v>1460208</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1404558</v>
+        <v>1395700</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1519051</v>
+        <v>1512589</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4322524563775726</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4157788934013643</v>
+        <v>0.4131566988535063</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4496713267678598</v>
+        <v>0.4477582278075399</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2783</v>
@@ -4000,19 +4000,19 @@
         <v>2844638</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2764469</v>
+        <v>2761294</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2917745</v>
+        <v>2924166</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4275177466388947</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4154693149428271</v>
+        <v>0.4149920450093524</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4385050094211628</v>
+        <v>0.4394699334132656</v>
       </c>
     </row>
     <row r="50">
@@ -4029,19 +4029,19 @@
         <v>686702</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>640876</v>
+        <v>638256</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>730244</v>
+        <v>731651</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2096344699617352</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1956448754905807</v>
+        <v>0.1948450601177918</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2229271383563823</v>
+        <v>0.2233566821408272</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>908</v>
@@ -4050,19 +4050,19 @@
         <v>941362</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>884049</v>
+        <v>888893</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>992730</v>
+        <v>996748</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.278663137595427</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.261697149029724</v>
+        <v>0.2631312348683095</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2938691156839452</v>
+        <v>0.2950584840643686</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1579</v>
@@ -4071,19 +4071,19 @@
         <v>1628064</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1555063</v>
+        <v>1564830</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1703703</v>
+        <v>1702685</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2446801112148118</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2337088436282282</v>
+        <v>0.2351767549647407</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2560478895813975</v>
+        <v>0.2558947600376924</v>
       </c>
     </row>
     <row r="51">
@@ -4418,19 +4418,19 @@
         <v>20952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14137</v>
+        <v>13236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30715</v>
+        <v>30496</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04613511222879296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03112772037672849</v>
+        <v>0.02914459370335053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06763201559631915</v>
+        <v>0.06715091071681488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4439,19 +4439,19 @@
         <v>12914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7262</v>
+        <v>7663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21327</v>
+        <v>21477</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03008271677133052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01691536524958036</v>
+        <v>0.01784958520866314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04967891425680693</v>
+        <v>0.05002902050656485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4460,19 +4460,19 @@
         <v>33866</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23431</v>
+        <v>24897</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45921</v>
+        <v>46617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03833475782669003</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02652253072098034</v>
+        <v>0.0281815312437553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05198044479678947</v>
+        <v>0.05276793863192353</v>
       </c>
     </row>
     <row r="5">
@@ -4489,19 +4489,19 @@
         <v>43913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31606</v>
+        <v>32516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57799</v>
+        <v>58172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09669321630530958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06959537188573148</v>
+        <v>0.07159787006645069</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1272706306516365</v>
+        <v>0.1280908111781322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -4510,19 +4510,19 @@
         <v>27330</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18270</v>
+        <v>18692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37339</v>
+        <v>39621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06366332294193829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04255868210322915</v>
+        <v>0.04354268007691322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08697816494706481</v>
+        <v>0.09229369952332764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -4531,19 +4531,19 @@
         <v>71243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57273</v>
+        <v>56482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90614</v>
+        <v>87732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08064297166856974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06483010425863346</v>
+        <v>0.06393461856897366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1025707110785126</v>
+        <v>0.09930753916461649</v>
       </c>
     </row>
     <row r="6">
@@ -4560,19 +4560,19 @@
         <v>155998</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>136779</v>
+        <v>136890</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178128</v>
+        <v>177922</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.343497622043752</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3011783025732568</v>
+        <v>0.3014219161221681</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3922260137969036</v>
+        <v>0.3917722537089148</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>112</v>
@@ -4581,19 +4581,19 @@
         <v>115231</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>98631</v>
+        <v>97317</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>134064</v>
+        <v>135176</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2684229734992208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2297559439020863</v>
+        <v>0.2266935487252535</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3122936513443429</v>
+        <v>0.3148837648536061</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -4602,19 +4602,19 @@
         <v>271229</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>244461</v>
+        <v>245869</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>301087</v>
+        <v>299934</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3070165331737151</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2767168173649947</v>
+        <v>0.278310892961676</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3408147768253124</v>
+        <v>0.3395095164153971</v>
       </c>
     </row>
     <row r="7">
@@ -4631,19 +4631,19 @@
         <v>136089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117277</v>
+        <v>117710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156980</v>
+        <v>156612</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2996587144512425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2582371214604871</v>
+        <v>0.2591908354670612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3456602169135826</v>
+        <v>0.3448488831988398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -4652,19 +4652,19 @@
         <v>143073</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124583</v>
+        <v>123590</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165091</v>
+        <v>163674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3332788220991196</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.290208686209547</v>
+        <v>0.2878946380856622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3845687586038364</v>
+        <v>0.3812683234180379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>271</v>
@@ -4673,19 +4673,19 @@
         <v>279161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249582</v>
+        <v>249466</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>306317</v>
+        <v>308690</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3159957624254984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2825129540079103</v>
+        <v>0.2823823067534525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3467348751774814</v>
+        <v>0.3494209723319649</v>
       </c>
     </row>
     <row r="8">
@@ -4702,19 +4702,19 @@
         <v>97194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80616</v>
+        <v>79422</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>115361</v>
+        <v>114570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2140153349709029</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1775105327042534</v>
+        <v>0.1748816091374887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2540169843518159</v>
+        <v>0.2522756953144046</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>127</v>
@@ -4723,19 +4723,19 @@
         <v>130741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113108</v>
+        <v>111389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150393</v>
+        <v>150483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3045521646883909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2634792631792834</v>
+        <v>0.2594747847115987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3503320613720448</v>
+        <v>0.3505409281774702</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>223</v>
@@ -4744,19 +4744,19 @@
         <v>227935</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>199296</v>
+        <v>201859</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>256745</v>
+        <v>254690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2580099749055267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2255924054922323</v>
+        <v>0.2284941404626906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2906220504614844</v>
+        <v>0.288295204985707</v>
       </c>
     </row>
     <row r="9">
@@ -4848,19 +4848,19 @@
         <v>10213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5335</v>
+        <v>5428</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18022</v>
+        <v>17751</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01486475350680518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007765247996094498</v>
+        <v>0.007899452152174675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02623003101030484</v>
+        <v>0.02583493354270522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -4869,19 +4869,19 @@
         <v>7960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3892</v>
+        <v>3852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15803</v>
+        <v>15384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01304406781111822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00637755387958853</v>
+        <v>0.006311416259461967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02589518004457534</v>
+        <v>0.02520962604794228</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4890,19 +4890,19 @@
         <v>18174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10947</v>
+        <v>11724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27282</v>
+        <v>28865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01400832327545591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008438195182166128</v>
+        <v>0.009036833941643686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02102903845862927</v>
+        <v>0.02224899205727262</v>
       </c>
     </row>
     <row r="11">
@@ -4919,19 +4919,19 @@
         <v>34678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24538</v>
+        <v>24764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47718</v>
+        <v>47184</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05047077587590565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03571344826650859</v>
+        <v>0.03604161545410126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06944943717819499</v>
+        <v>0.0686725962068732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -4940,19 +4940,19 @@
         <v>20823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13045</v>
+        <v>12492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31023</v>
+        <v>31589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03412188578126873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02137688272097051</v>
+        <v>0.02046950464419978</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05083614989483102</v>
+        <v>0.05176374226992745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -4961,19 +4961,19 @@
         <v>55501</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41537</v>
+        <v>42546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71071</v>
+        <v>71251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.042780440438426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03201737988819865</v>
+        <v>0.03279469024083263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05478232668220023</v>
+        <v>0.05492038012572849</v>
       </c>
     </row>
     <row r="12">
@@ -4990,19 +4990,19 @@
         <v>181070</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>159153</v>
+        <v>157132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>206659</v>
+        <v>204961</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2635323453482469</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2316346369848693</v>
+        <v>0.2286926461265621</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3007748811496297</v>
+        <v>0.298304567572154</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -5011,19 +5011,19 @@
         <v>121128</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102275</v>
+        <v>101650</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>143175</v>
+        <v>142750</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1984871751019093</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1675936735651453</v>
+        <v>0.1665692262587111</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2346148440057273</v>
+        <v>0.233918914293241</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>292</v>
@@ -5032,19 +5032,19 @@
         <v>302197</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>272813</v>
+        <v>267083</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>331052</v>
+        <v>331047</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2329358232059641</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2102862162147353</v>
+        <v>0.205869233500211</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2551767484083243</v>
+        <v>0.2551734773876184</v>
       </c>
     </row>
     <row r="13">
@@ -5061,19 +5061,19 @@
         <v>249146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>223483</v>
+        <v>224888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>273555</v>
+        <v>275206</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3626126059342246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3252609442736362</v>
+        <v>0.3273061691027973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3981380443053865</v>
+        <v>0.4005402068861992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>185</v>
@@ -5082,19 +5082,19 @@
         <v>197760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>175356</v>
+        <v>175739</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223946</v>
+        <v>222862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3240620642250506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2873487261052553</v>
+        <v>0.2879766657586099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3669710257780119</v>
+        <v>0.3651952573176543</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>422</v>
@@ -5103,19 +5103,19 @@
         <v>446907</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>414175</v>
+        <v>414332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>482521</v>
+        <v>484057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3444788613604965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3192489589454183</v>
+        <v>0.3193700851425559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3719305359478379</v>
+        <v>0.373114057363757</v>
       </c>
     </row>
     <row r="14">
@@ -5132,19 +5132,19 @@
         <v>211980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190332</v>
+        <v>186409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>239349</v>
+        <v>236150</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3085195193348177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2770131675582281</v>
+        <v>0.2713033964080279</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3483530192392125</v>
+        <v>0.3436978175323834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>243</v>
@@ -5153,19 +5153,19 @@
         <v>262583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238683</v>
+        <v>234628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>288065</v>
+        <v>287154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4302848070806531</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3911200532347257</v>
+        <v>0.3844755663015975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4720406591887187</v>
+        <v>0.4705481910120172</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>451</v>
@@ -5174,19 +5174,19 @@
         <v>474563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>441116</v>
+        <v>439646</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>509838</v>
+        <v>512240</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3657965517196575</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3400148531802017</v>
+        <v>0.3388822158401344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3929863236276344</v>
+        <v>0.3948380363521916</v>
       </c>
     </row>
     <row r="15">
@@ -5278,19 +5278,19 @@
         <v>10710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5029</v>
+        <v>5810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18681</v>
+        <v>18962</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01573119299194689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007386192044046082</v>
+        <v>0.008533446087619828</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02743842162266755</v>
+        <v>0.02785164584469408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5299,19 +5299,19 @@
         <v>6764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2852</v>
+        <v>2860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15307</v>
+        <v>14595</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009528345832452254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004018131335599343</v>
+        <v>0.004029360825923028</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02156314440786629</v>
+        <v>0.02056022932113958</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -5320,19 +5320,19 @@
         <v>17474</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10528</v>
+        <v>10644</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26961</v>
+        <v>27467</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01256502135172219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007570444337469323</v>
+        <v>0.007653897477194266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01938642737883996</v>
+        <v>0.01975013424816975</v>
       </c>
     </row>
     <row r="17">
@@ -5349,19 +5349,19 @@
         <v>23074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15558</v>
+        <v>15192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34687</v>
+        <v>35171</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03389020805502543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02285069116400985</v>
+        <v>0.022313420273787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05094769527154766</v>
+        <v>0.05165834616150427</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -5370,19 +5370,19 @@
         <v>22219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13992</v>
+        <v>13830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34221</v>
+        <v>33310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03130066735210538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01971036674453009</v>
+        <v>0.01948253843243186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04820780132089796</v>
+        <v>0.04692461024479968</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -5391,19 +5391,19 @@
         <v>45293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34208</v>
+        <v>33090</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63610</v>
+        <v>60886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03256840693306114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02459799546301341</v>
+        <v>0.02379365750985002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04573979420115493</v>
+        <v>0.04378100518168276</v>
       </c>
     </row>
     <row r="18">
@@ -5420,19 +5420,19 @@
         <v>146481</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>123936</v>
+        <v>125853</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>167454</v>
+        <v>169047</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2151500312547994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1820357887226757</v>
+        <v>0.1848513721991323</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2459549942413333</v>
+        <v>0.248294942907158</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -5441,19 +5441,19 @@
         <v>106953</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86552</v>
+        <v>88098</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127794</v>
+        <v>127941</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1506667126977777</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1219263686446568</v>
+        <v>0.1241052534834637</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1800250307007112</v>
+        <v>0.1802319603567503</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>240</v>
@@ -5462,19 +5462,19 @@
         <v>253435</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>224930</v>
+        <v>224992</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>281018</v>
+        <v>284308</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1822352665938157</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1617387250567641</v>
+        <v>0.1617831335870432</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2020693320621121</v>
+        <v>0.2044351474747061</v>
       </c>
     </row>
     <row r="19">
@@ -5491,19 +5491,19 @@
         <v>251435</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>224961</v>
+        <v>225193</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>277888</v>
+        <v>277492</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3693053303386312</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3304202756939239</v>
+        <v>0.3307608874722353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4081594223583075</v>
+        <v>0.4075776494315004</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>224</v>
@@ -5512,19 +5512,19 @@
         <v>234289</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>210291</v>
+        <v>205999</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>260205</v>
+        <v>257308</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3300465802601762</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2962405153048398</v>
+        <v>0.2901937329925955</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3665549920703903</v>
+        <v>0.3624734307182658</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>462</v>
@@ -5533,19 +5533,19 @@
         <v>485724</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>449827</v>
+        <v>449126</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>525809</v>
+        <v>524543</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3492661551126531</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3234535180983796</v>
+        <v>0.322949356267591</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3780895195620773</v>
+        <v>0.3771789218438381</v>
       </c>
     </row>
     <row r="20">
@@ -5562,19 +5562,19 @@
         <v>249133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223901</v>
+        <v>224138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277875</v>
+        <v>276343</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3659232373595971</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3288632627847335</v>
+        <v>0.3292118768464369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4081400997786218</v>
+        <v>0.4058901130048714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -5583,19 +5583,19 @@
         <v>339641</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>314942</v>
+        <v>313510</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369701</v>
+        <v>367628</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4784576938574884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4436631073330998</v>
+        <v>0.4416456907517779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5208034623099879</v>
+        <v>0.5178825079140208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>555</v>
@@ -5604,19 +5604,19 @@
         <v>588774</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>552779</v>
+        <v>549773</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>628334</v>
+        <v>627616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4233651500087479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3974827985834706</v>
+        <v>0.3953213906598856</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4518116265063789</v>
+        <v>0.4512946722862957</v>
       </c>
     </row>
     <row r="21">
@@ -5708,19 +5708,19 @@
         <v>5463</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1972</v>
+        <v>1307</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16360</v>
+        <v>15730</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008918751847112995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003219129001778334</v>
+        <v>0.002134028602306109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02670712109439762</v>
+        <v>0.02567808994294223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6884</v>
+        <v>6448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003417732792389345</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01124811631461877</v>
+        <v>0.01053533798612293</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -5750,19 +5750,19 @@
         <v>7555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3054</v>
+        <v>3072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17557</v>
+        <v>16886</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00616941852819916</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002494008101056037</v>
+        <v>0.002508453617405228</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0143362841181987</v>
+        <v>0.01378860309283269</v>
       </c>
     </row>
     <row r="23">
@@ -5779,19 +5779,19 @@
         <v>17874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10834</v>
+        <v>10603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30206</v>
+        <v>29334</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02917772603131207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0176857839789476</v>
+        <v>0.017309441386883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04930970106060384</v>
+        <v>0.04788638920469773</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -5800,19 +5800,19 @@
         <v>8437</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4167</v>
+        <v>4209</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17661</v>
+        <v>16191</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0137843291837568</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00680774303718004</v>
+        <v>0.006876167699744784</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02885536274189949</v>
+        <v>0.02645357070960874</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -5821,19 +5821,19 @@
         <v>26310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17082</v>
+        <v>17789</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38672</v>
+        <v>39847</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02148431896923219</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01394870216972282</v>
+        <v>0.01452611632708959</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03157860481566141</v>
+        <v>0.03253783756997924</v>
       </c>
     </row>
     <row r="24">
@@ -5850,19 +5850,19 @@
         <v>144742</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122882</v>
+        <v>120532</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168374</v>
+        <v>166996</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2362845485380098</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2005985200352765</v>
+        <v>0.1967629869534474</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2748619748194136</v>
+        <v>0.2726120534967781</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -5871,19 +5871,19 @@
         <v>93009</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>76197</v>
+        <v>77044</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>113245</v>
+        <v>112106</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1519620279001756</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1244936411008029</v>
+        <v>0.1258781468143663</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1850240636608321</v>
+        <v>0.1831635943916591</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>211</v>
@@ -5892,19 +5892,19 @@
         <v>237751</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>209320</v>
+        <v>205801</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>268849</v>
+        <v>265447</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1941413177623725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1709247156383559</v>
+        <v>0.1680518936628339</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2195352804564234</v>
+        <v>0.2167572668913805</v>
       </c>
     </row>
     <row r="25">
@@ -5921,19 +5921,19 @@
         <v>218633</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>195715</v>
+        <v>194675</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>243938</v>
+        <v>245723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3569066260482244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3194949552051705</v>
+        <v>0.3177968159741226</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3982154422895458</v>
+        <v>0.4011294334335831</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -5942,19 +5942,19 @@
         <v>196374</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>172681</v>
+        <v>172885</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>222311</v>
+        <v>222946</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.320845173329236</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2821344306002209</v>
+        <v>0.2824674247303893</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3632210806137613</v>
+        <v>0.3642590254568638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>363</v>
@@ -5963,19 +5963,19 @@
         <v>415007</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382950</v>
+        <v>379416</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>451607</v>
+        <v>450871</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3388836102210721</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3127067141389664</v>
+        <v>0.3098210120047766</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3687702251263218</v>
+        <v>0.3681694644201427</v>
       </c>
     </row>
     <row r="26">
@@ -5992,19 +5992,19 @@
         <v>225865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>198856</v>
+        <v>200279</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>249807</v>
+        <v>253449</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3687123475353408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3246224425943693</v>
+        <v>0.3269455522624727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4077970514403902</v>
+        <v>0.4137424243025072</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>276</v>
@@ -6013,19 +6013,19 @@
         <v>312141</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>288281</v>
+        <v>286619</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>341120</v>
+        <v>340881</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5099907367944423</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4710072356036371</v>
+        <v>0.4682910476290088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5573368272288086</v>
+        <v>0.5569473526666137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>478</v>
@@ -6034,19 +6034,19 @@
         <v>538006</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>496491</v>
+        <v>503735</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>570482</v>
+        <v>575422</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4393213345191241</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4054212604908151</v>
+        <v>0.4113363628342284</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4658405095153571</v>
+        <v>0.4698743248650189</v>
       </c>
     </row>
     <row r="27">
@@ -6138,19 +6138,19 @@
         <v>4205</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10604</v>
+        <v>9774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0097921349117838</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00244320797484492</v>
+        <v>0.00242339351869651</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02469393003797253</v>
+        <v>0.02275942590668462</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7926</v>
+        <v>7289</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005032573158612007</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01777216290124548</v>
+        <v>0.0163446762087448</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -6180,19 +6180,19 @@
         <v>6449</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3055</v>
+        <v>2278</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14038</v>
+        <v>13926</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007367398134658852</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003490253509733456</v>
+        <v>0.002602399373337549</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01603646850423295</v>
+        <v>0.01590832443375553</v>
       </c>
     </row>
     <row r="29">
@@ -6209,19 +6209,19 @@
         <v>12667</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7229</v>
+        <v>7201</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20369</v>
+        <v>21416</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0294982643628999</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01683510611051844</v>
+        <v>0.01676907564956547</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04743283565815165</v>
+        <v>0.04987053958392473</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -6230,19 +6230,19 @@
         <v>9454</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4087</v>
+        <v>3987</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18379</v>
+        <v>19129</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02119818505857885</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009165423135443199</v>
+        <v>0.008940458620539299</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04121124531156629</v>
+        <v>0.04289437136413893</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -6251,19 +6251,19 @@
         <v>22121</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12672</v>
+        <v>14097</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32670</v>
+        <v>34910</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02526982725336368</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01447525641548071</v>
+        <v>0.01610312237364904</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0373200623643318</v>
+        <v>0.03987891076818256</v>
       </c>
     </row>
     <row r="30">
@@ -6280,19 +6280,19 @@
         <v>80818</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65329</v>
+        <v>65133</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98311</v>
+        <v>99764</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1881994529972129</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1521303355767046</v>
+        <v>0.1516736517639339</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2289336356735254</v>
+        <v>0.2323174373571987</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>62</v>
@@ -6301,19 +6301,19 @@
         <v>67095</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54103</v>
+        <v>53854</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84746</v>
+        <v>85441</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1504494065863702</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1213175136388269</v>
+        <v>0.1207590714034346</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1900272879544801</v>
+        <v>0.1915852706757916</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>135</v>
@@ -6322,19 +6322,19 @@
         <v>147914</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>127329</v>
+        <v>126504</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>171690</v>
+        <v>173531</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1689678660113848</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1454536614226585</v>
+        <v>0.1445112076953987</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.19612864414977</v>
+        <v>0.1982313477067009</v>
       </c>
     </row>
     <row r="31">
@@ -6351,19 +6351,19 @@
         <v>146558</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>126909</v>
+        <v>126194</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>165882</v>
+        <v>166425</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3412856439321748</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2955298686637802</v>
+        <v>0.2938641666400394</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3862839103384732</v>
+        <v>0.3875488465276359</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>143</v>
@@ -6372,19 +6372,19 @@
         <v>158323</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>136753</v>
+        <v>136429</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>179212</v>
+        <v>179382</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.355011811530762</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3066448913424192</v>
+        <v>0.305918268145811</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4018520421623192</v>
+        <v>0.4022334037759895</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>276</v>
@@ -6393,19 +6393,19 @@
         <v>304881</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>273725</v>
+        <v>275578</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>334359</v>
+        <v>331369</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3482783766902057</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3126870439606779</v>
+        <v>0.3148039706251447</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3819517872887932</v>
+        <v>0.3785369008433878</v>
       </c>
     </row>
     <row r="32">
@@ -6422,19 +6422,19 @@
         <v>185180</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>165029</v>
+        <v>163614</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>207480</v>
+        <v>206384</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4312245037959286</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3842985293927316</v>
+        <v>0.3810040169596025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4831540031511981</v>
+        <v>0.480600341937812</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>191</v>
@@ -6443,19 +6443,19 @@
         <v>208849</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>186658</v>
+        <v>186933</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>229130</v>
+        <v>233965</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4683080236656769</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4185466934278176</v>
+        <v>0.4191636735431691</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5137839142885244</v>
+        <v>0.5246254161989204</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>362</v>
@@ -6464,19 +6464,19 @@
         <v>394030</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>364513</v>
+        <v>363501</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>426221</v>
+        <v>426618</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.450116531910387</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4163983874000448</v>
+        <v>0.4152419399983883</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4868899092730528</v>
+        <v>0.4873434229235531</v>
       </c>
     </row>
     <row r="33">
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6497</v>
+        <v>5748</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006075219423649687</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02118181842747045</v>
+        <v>0.01874014075933293</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5686</v>
+        <v>6524</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002820243343602718</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008606131133315416</v>
+        <v>0.009874730820729751</v>
       </c>
     </row>
     <row r="35">
@@ -6631,19 +6631,19 @@
         <v>10926</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5869</v>
+        <v>5737</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19404</v>
+        <v>18561</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03562377370511747</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0191350051715538</v>
+        <v>0.01870535494695414</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06326404445383993</v>
+        <v>0.06051530980136281</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -6652,19 +6652,19 @@
         <v>8948</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4006</v>
+        <v>4015</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16154</v>
+        <v>15838</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02527828324897168</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01131711904453159</v>
+        <v>0.01134195292752486</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04563406989317806</v>
+        <v>0.04474127273831308</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>20</v>
@@ -6673,19 +6673,19 @@
         <v>19875</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>12102</v>
+        <v>12797</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>30210</v>
+        <v>30340</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0300808753136584</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01831608127370146</v>
+        <v>0.01936821107499083</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04572281724644947</v>
+        <v>0.04591975895263398</v>
       </c>
     </row>
     <row r="36">
@@ -6702,19 +6702,19 @@
         <v>42290</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31536</v>
+        <v>31602</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>58082</v>
+        <v>56826</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1378782798424666</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1028180909735655</v>
+        <v>0.1030326452470561</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1893677128696676</v>
+        <v>0.1852729019529211</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>35</v>
@@ -6723,19 +6723,19 @@
         <v>35434</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>24916</v>
+        <v>25605</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>47992</v>
+        <v>49539</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1000972908435596</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07038505189077866</v>
+        <v>0.07233173919558529</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1355733092944632</v>
+        <v>0.1399419049262088</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>74</v>
@@ -6744,19 +6744,19 @@
         <v>77724</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>61678</v>
+        <v>61401</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>95560</v>
+        <v>95731</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1176360125437355</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09335034960196285</v>
+        <v>0.09293121503357954</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1446309296652655</v>
+        <v>0.1448908097014051</v>
       </c>
     </row>
     <row r="37">
@@ -6773,19 +6773,19 @@
         <v>109831</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>92775</v>
+        <v>91759</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>129751</v>
+        <v>127359</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3580846428943686</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3024789444757387</v>
+        <v>0.2991655576619793</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4230309986936394</v>
+        <v>0.4152317427470423</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>124</v>
@@ -6794,19 +6794,19 @@
         <v>126058</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>107571</v>
+        <v>108836</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>143133</v>
+        <v>146509</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3560993372423306</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3038761035014782</v>
+        <v>0.3074509409053502</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4043354214823845</v>
+        <v>0.4138726863129438</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>221</v>
@@ -6815,19 +6815,19 @@
         <v>235888</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>212879</v>
+        <v>211989</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>262716</v>
+        <v>262381</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.357020957460422</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3221952244268985</v>
+        <v>0.3208492513797128</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3976255484691465</v>
+        <v>0.3971186695948846</v>
       </c>
     </row>
     <row r="38">
@@ -6844,19 +6844,19 @@
         <v>141807</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>123194</v>
+        <v>122590</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>159221</v>
+        <v>159300</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4623380841343976</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4016543460027536</v>
+        <v>0.399683165056899</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5191126907272607</v>
+        <v>0.5193701647103474</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>176</v>
@@ -6865,19 +6865,19 @@
         <v>183556</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>165479</v>
+        <v>163596</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>202253</v>
+        <v>202020</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5185250886651381</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.467461198165494</v>
+        <v>0.4621403003340255</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5713423102671662</v>
+        <v>0.5706839292078597</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>306</v>
@@ -6886,19 +6886,19 @@
         <v>325363</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>300611</v>
+        <v>297727</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>351377</v>
+        <v>352306</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4924419113385814</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4549802374698485</v>
+        <v>0.4506145907880808</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5318150755701934</v>
+        <v>0.5332206326943247</v>
       </c>
     </row>
     <row r="39">
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12081</v>
+        <v>10906</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.008839424030585231</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04855993702893487</v>
+        <v>0.04383657082597148</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -7011,19 +7011,19 @@
         <v>4476</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1173</v>
+        <v>1116</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11148</v>
+        <v>11519</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0115654630520197</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00303118939143566</v>
+        <v>0.00288267007230188</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02880135740925858</v>
+        <v>0.02976212731973421</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -7032,19 +7032,19 @@
         <v>6676</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15380</v>
+        <v>14644</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0104988477464508</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003468139283973272</v>
+        <v>0.003456272996339821</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02418878719070385</v>
+        <v>0.02303173244800348</v>
       </c>
     </row>
     <row r="41">
@@ -7061,19 +7061,19 @@
         <v>5592</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2208</v>
+        <v>2173</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12530</v>
+        <v>12133</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02247671162332965</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008874685555334053</v>
+        <v>0.00873495597142456</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05036490581910823</v>
+        <v>0.04876894545460515</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -7082,19 +7082,19 @@
         <v>6746</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2331</v>
+        <v>2303</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13694</v>
+        <v>13537</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01742827905724888</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006021243447839288</v>
+        <v>0.005949635436337287</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03537985746595363</v>
+        <v>0.03497388756670018</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>11</v>
@@ -7103,19 +7103,19 @@
         <v>12337</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6653</v>
+        <v>6430</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>21232</v>
+        <v>21704</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01940357559621064</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01046282466486247</v>
+        <v>0.01011243622287253</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03339294884383467</v>
+        <v>0.03413494081782865</v>
       </c>
     </row>
     <row r="42">
@@ -7132,19 +7132,19 @@
         <v>30551</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21547</v>
+        <v>20365</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>43677</v>
+        <v>42200</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1228006282889115</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0866104687152047</v>
+        <v>0.08185719396618325</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1755622034848501</v>
+        <v>0.1696265865216399</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>42</v>
@@ -7153,19 +7153,19 @@
         <v>46182</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>34006</v>
+        <v>34490</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>59833</v>
+        <v>61216</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.119317651947007</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08785966094221007</v>
+        <v>0.08911002659029817</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1545868470763222</v>
+        <v>0.1581595712644565</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>68</v>
@@ -7174,19 +7174,19 @@
         <v>76733</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>58163</v>
+        <v>60702</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>94638</v>
+        <v>96173</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1206804335675191</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09147514897618532</v>
+        <v>0.09546894676119329</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1488400721336753</v>
+        <v>0.1512551774207758</v>
       </c>
     </row>
     <row r="43">
@@ -7203,19 +7203,19 @@
         <v>93290</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>77243</v>
+        <v>77887</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>110300</v>
+        <v>110168</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3749883461883737</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3104857786079835</v>
+        <v>0.3130720237190489</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4433604680987256</v>
+        <v>0.4428284119159248</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>115</v>
@@ -7224,19 +7224,19 @@
         <v>129366</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>110124</v>
+        <v>109666</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>149688</v>
+        <v>148052</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3342340746242234</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2845206446900366</v>
+        <v>0.2833371122382609</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3867395395347621</v>
+        <v>0.382512207098855</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>196</v>
@@ -7245,19 +7245,19 @@
         <v>222656</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>200501</v>
+        <v>196353</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>249725</v>
+        <v>248002</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.350179968823038</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3153353990208292</v>
+        <v>0.3088124292802996</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3927520966786598</v>
+        <v>0.3900412734129167</v>
       </c>
     </row>
     <row r="44">
@@ -7274,19 +7274,19 @@
         <v>117150</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>101612</v>
+        <v>101683</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>134474</v>
+        <v>134517</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4708948898687998</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4084367049332045</v>
+        <v>0.4087238479119125</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5405293742295203</v>
+        <v>0.5407039835906829</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>182</v>
@@ -7295,19 +7295,19 @@
         <v>200282</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>180755</v>
+        <v>179880</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>220632</v>
+        <v>221186</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5174545313195009</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4670057132802027</v>
+        <v>0.4647428853757134</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5700319096688803</v>
+        <v>0.5714627193442445</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>290</v>
@@ -7316,19 +7316,19 @@
         <v>317432</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>291075</v>
+        <v>290993</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>344312</v>
+        <v>343905</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4992371742667814</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.45778490487579</v>
+        <v>0.4576549835809063</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5415117633353483</v>
+        <v>0.5408720701859017</v>
       </c>
     </row>
     <row r="45">
@@ -7420,19 +7420,19 @@
         <v>55607</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>40836</v>
+        <v>42898</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>72526</v>
+        <v>72299</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0162613072791618</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01194191085485829</v>
+        <v>0.01254488490357313</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02120903449456533</v>
+        <v>0.0211426829177917</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>35</v>
@@ -7441,19 +7441,19 @@
         <v>36451</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>26230</v>
+        <v>25963</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>51862</v>
+        <v>50554</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01027224914762225</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007391774407423359</v>
+        <v>0.007316720969040486</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01461528160533617</v>
+        <v>0.0142467397146105</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>90</v>
@@ -7462,19 +7462,19 @@
         <v>92058</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>75916</v>
+        <v>74105</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>113122</v>
+        <v>112447</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01321138085106804</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01089489764545531</v>
+        <v>0.01063501264438638</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01623441469533745</v>
+        <v>0.01613753606303884</v>
       </c>
     </row>
     <row r="47">
@@ -7491,19 +7491,19 @@
         <v>148723</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>125971</v>
+        <v>126434</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>175438</v>
+        <v>173990</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04349185039249806</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03683825574171524</v>
+        <v>0.0369736924091395</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05130397392248702</v>
+        <v>0.05088075879478358</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>97</v>
@@ -7512,19 +7512,19 @@
         <v>103957</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>86516</v>
+        <v>82238</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>127513</v>
+        <v>124179</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02929615574790501</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02438112621605774</v>
+        <v>0.02317564949067939</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03593447472264103</v>
+        <v>0.03499492804642183</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>240</v>
@@ -7533,19 +7533,19 @@
         <v>252680</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>222746</v>
+        <v>222488</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>286488</v>
+        <v>283223</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03626269627330705</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03196673431288666</v>
+        <v>0.0319298062577154</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04111446442016219</v>
+        <v>0.0406459953520166</v>
       </c>
     </row>
     <row r="48">
@@ -7562,19 +7562,19 @@
         <v>781950</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>726140</v>
+        <v>733837</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>828652</v>
+        <v>833828</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2286690342700469</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2123481575632317</v>
+        <v>0.2145992136109597</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2423262371968773</v>
+        <v>0.2438400046448235</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>545</v>
@@ -7583,19 +7583,19 @@
         <v>585032</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>543288</v>
+        <v>536633</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>634120</v>
+        <v>634088</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1648685420210648</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.153104469048434</v>
+        <v>0.1512292085722982</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.178702125887247</v>
+        <v>0.1786930285778704</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1287</v>
@@ -7604,19 +7604,19 @@
         <v>1366982</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1296415</v>
+        <v>1299387</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1427717</v>
+        <v>1435829</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.196178648776737</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1860513418440459</v>
+        <v>0.1864779064955405</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2048948128160912</v>
+        <v>0.2060590007879017</v>
       </c>
     </row>
     <row r="49">
@@ -7633,19 +7633,19 @@
         <v>1204982</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1148370</v>
+        <v>1146251</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1259327</v>
+        <v>1267405</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3523781768686404</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3358228277391034</v>
+        <v>0.3352031106747037</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3682705186053441</v>
+        <v>0.3706328619657047</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1101</v>
@@ -7654,19 +7654,19 @@
         <v>1185243</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1129876</v>
+        <v>1127920</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1246737</v>
+        <v>1237969</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3340146828991245</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3184115800328833</v>
+        <v>0.3178602889217009</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3513442393473639</v>
+        <v>0.3488734689255952</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2211</v>
@@ -7675,19 +7675,19 @@
         <v>2390226</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2310677</v>
+        <v>2316003</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2474685</v>
+        <v>2482209</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3430265719351665</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3316103310368719</v>
+        <v>0.3323746650132746</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.355147501645332</v>
+        <v>0.3562272319540976</v>
       </c>
     </row>
     <row r="50">
@@ -7704,19 +7704,19 @@
         <v>1228309</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1171506</v>
+        <v>1172048</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1285090</v>
+        <v>1289872</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3591996311896529</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3425886799188054</v>
+        <v>0.3427469527792429</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3758045415970035</v>
+        <v>0.3772029157204006</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1513</v>
@@ -7725,19 +7725,19 @@
         <v>1637794</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1579692</v>
+        <v>1580109</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1696975</v>
+        <v>1697922</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4615483701842835</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.4451745897524868</v>
+        <v>0.4452922137713912</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4782261897499411</v>
+        <v>0.4784931279286323</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2665</v>
@@ -7746,19 +7746,19 @@
         <v>2866103</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2787554</v>
+        <v>2776295</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2961100</v>
+        <v>2946944</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4113207021637214</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4000479976805386</v>
+        <v>0.3984322442612754</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4249539617883358</v>
+        <v>0.4229223704989303</v>
       </c>
     </row>
     <row r="51">
@@ -8093,19 +8093,19 @@
         <v>9462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4540</v>
+        <v>5016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17698</v>
+        <v>17563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02273163974482997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01090598498546162</v>
+        <v>0.01204926237239044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04251567083679667</v>
+        <v>0.0421922250132216</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -8114,19 +8114,19 @@
         <v>17167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9866</v>
+        <v>10659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25721</v>
+        <v>26660</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04359073319061985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02505226586132927</v>
+        <v>0.02706485980599426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06531012864709876</v>
+        <v>0.06769565476801048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -8135,19 +8135,19 @@
         <v>26629</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17981</v>
+        <v>18536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39239</v>
+        <v>38848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0328723321810843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02219688751837784</v>
+        <v>0.02288118703132726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04843806292338168</v>
+        <v>0.04795569311917915</v>
       </c>
     </row>
     <row r="5">
@@ -8164,19 +8164,19 @@
         <v>23116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15093</v>
+        <v>15300</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35027</v>
+        <v>35354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05553371006647191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0362579515011955</v>
+        <v>0.0367550193022028</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0841465588243142</v>
+        <v>0.08493164905686809</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -8185,19 +8185,19 @@
         <v>20472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12805</v>
+        <v>13287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30325</v>
+        <v>30019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05198292092884615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03251391807331155</v>
+        <v>0.03373931519529708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07700154170768152</v>
+        <v>0.07622392853497528</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -8206,19 +8206,19 @@
         <v>43589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31477</v>
+        <v>31697</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57653</v>
+        <v>57529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05380748641038473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0388567006779106</v>
+        <v>0.03912790222841413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07116855917219565</v>
+        <v>0.07101638117331947</v>
       </c>
     </row>
     <row r="6">
@@ -8235,19 +8235,19 @@
         <v>127098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107999</v>
+        <v>107575</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146160</v>
+        <v>145377</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3053322961572832</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2594500503720183</v>
+        <v>0.2584333102657714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3511262030864049</v>
+        <v>0.3492447715913161</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>111</v>
@@ -8256,19 +8256,19 @@
         <v>107732</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>91661</v>
+        <v>89948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>125496</v>
+        <v>124833</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2735547565030088</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2327460088945194</v>
+        <v>0.228395672581014</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3186607111128202</v>
+        <v>0.3169757914256301</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>230</v>
@@ -8277,19 +8277,19 @@
         <v>234830</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>208863</v>
+        <v>208609</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>261876</v>
+        <v>261317</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2898835779830083</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2578288777936605</v>
+        <v>0.2575153059968481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3232703479821642</v>
+        <v>0.3225796306712523</v>
       </c>
     </row>
     <row r="7">
@@ -8306,19 +8306,19 @@
         <v>172985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150548</v>
+        <v>152412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>192085</v>
+        <v>192613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.415569657874465</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3616691787747165</v>
+        <v>0.3661450636222134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4614534347978757</v>
+        <v>0.4627217068560374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -8327,19 +8327,19 @@
         <v>153736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135341</v>
+        <v>134527</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173921</v>
+        <v>173125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3903683078275922</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3436593899196839</v>
+        <v>0.3415921350356918</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4416199691376247</v>
+        <v>0.4395994110604142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>321</v>
@@ -8348,19 +8348,19 @@
         <v>326721</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296362</v>
+        <v>299357</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352584</v>
+        <v>356716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4033179681992696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3658415308192374</v>
+        <v>0.3695376716226719</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4352442234330821</v>
+        <v>0.4403447454106704</v>
       </c>
     </row>
     <row r="8">
@@ -8377,19 +8377,19 @@
         <v>83599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67589</v>
+        <v>68294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100599</v>
+        <v>100322</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2008326961569499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1623710571977269</v>
+        <v>0.1640656774035063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2416737726254982</v>
+        <v>0.2410072065851171</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -8398,19 +8398,19 @@
         <v>94716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78388</v>
+        <v>79496</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111078</v>
+        <v>113856</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.240503281549933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1990435611303457</v>
+        <v>0.2018579092549911</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2820502138629551</v>
+        <v>0.2891046477407971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -8419,19 +8419,19 @@
         <v>178315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>154635</v>
+        <v>154046</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>204358</v>
+        <v>202399</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2201186352262531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.190887190126754</v>
+        <v>0.1901603564946193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2522678255708956</v>
+        <v>0.2498496849197909</v>
       </c>
     </row>
     <row r="9">
@@ -8523,19 +8523,19 @@
         <v>12916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6854</v>
+        <v>6965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20953</v>
+        <v>20871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02194825006732358</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01164735153958522</v>
+        <v>0.01183637272800089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03560602195514048</v>
+        <v>0.03546740849591155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -8544,19 +8544,19 @@
         <v>7794</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3348</v>
+        <v>3412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16167</v>
+        <v>16011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01392528054785568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005981801321024736</v>
+        <v>0.006095297286395681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02888347198617689</v>
+        <v>0.02860599555281549</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -8565,19 +8565,19 @@
         <v>20710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13186</v>
+        <v>12828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31719</v>
+        <v>31131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01803717993781621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01148434888651103</v>
+        <v>0.01117243953307515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02762568024631194</v>
+        <v>0.02711278039071008</v>
       </c>
     </row>
     <row r="11">
@@ -8594,19 +8594,19 @@
         <v>33416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22647</v>
+        <v>23212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45491</v>
+        <v>47173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0567852295194799</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03848444985706385</v>
+        <v>0.03944570563060006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07730394727607535</v>
+        <v>0.08016317480546385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -8615,19 +8615,19 @@
         <v>15466</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9121</v>
+        <v>9211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25873</v>
+        <v>25204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02763207233616992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01629526804686052</v>
+        <v>0.01645592746140589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04622419421963438</v>
+        <v>0.04503021024934305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -8636,19 +8636,19 @@
         <v>48882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35035</v>
+        <v>37245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63137</v>
+        <v>64627</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04257352873166003</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03051295482427648</v>
+        <v>0.03243846120164396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05498810396799904</v>
+        <v>0.05628617230114791</v>
       </c>
     </row>
     <row r="12">
@@ -8665,19 +8665,19 @@
         <v>139441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>119321</v>
+        <v>118936</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>160798</v>
+        <v>159709</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2369586993286009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2027671644441391</v>
+        <v>0.2021126614863658</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.273250965350803</v>
+        <v>0.2714006199412367</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>136</v>
@@ -8686,19 +8686,19 @@
         <v>131024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110699</v>
+        <v>113257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150580</v>
+        <v>150007</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2340868555965748</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1977755323118548</v>
+        <v>0.2023458921126929</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2690270523365345</v>
+        <v>0.2680018748424247</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>270</v>
@@ -8707,19 +8707,19 @@
         <v>270465</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>241852</v>
+        <v>244712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>298638</v>
+        <v>299671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2355587211522305</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2106379198081546</v>
+        <v>0.2131292560559359</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2600951754722617</v>
+        <v>0.2609950074488028</v>
       </c>
     </row>
     <row r="13">
@@ -8736,19 +8736,19 @@
         <v>253215</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>231059</v>
+        <v>229569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>278329</v>
+        <v>277363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4302992929674457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3926480734608588</v>
+        <v>0.3901155946188331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4729762374269928</v>
+        <v>0.4713351218207349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -8757,19 +8757,19 @@
         <v>237058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>214402</v>
+        <v>215331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>260071</v>
+        <v>258427</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4235285275846192</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3830512818743763</v>
+        <v>0.3847108391394535</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4646438956677016</v>
+        <v>0.4617067993581916</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>489</v>
@@ -8778,19 +8778,19 @@
         <v>490274</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>462627</v>
+        <v>455238</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>529502</v>
+        <v>523479</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4269986524529306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4029202150736172</v>
+        <v>0.3964847912387964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4611639511024571</v>
+        <v>0.4559178667556578</v>
       </c>
     </row>
     <row r="14">
@@ -8807,19 +8807,19 @@
         <v>149475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128686</v>
+        <v>129425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169752</v>
+        <v>172975</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2540085281171499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2186814154406719</v>
+        <v>0.2199372420567033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2884672502347506</v>
+        <v>0.2939428822905596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -8828,19 +8828,19 @@
         <v>168380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>149228</v>
+        <v>148989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191649</v>
+        <v>190424</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3008272639347804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.266610325562632</v>
+        <v>0.2661836643661797</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3424005421860764</v>
+        <v>0.3402114877567662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>313</v>
@@ -8849,19 +8849,19 @@
         <v>317855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>289079</v>
+        <v>287227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>349169</v>
+        <v>349514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2768319177253626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2517701358963129</v>
+        <v>0.2501571397695298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3041050716492752</v>
+        <v>0.3044050237822427</v>
       </c>
     </row>
     <row r="15">
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6804</v>
+        <v>7154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002957719690014972</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01018396373025837</v>
+        <v>0.01070770409345842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -8974,19 +8974,19 @@
         <v>6573</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2262</v>
+        <v>2942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14111</v>
+        <v>14138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00996757211790042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003430534889921724</v>
+        <v>0.004461264717067663</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0214005266009135</v>
+        <v>0.02144057091638091</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -8995,19 +8995,19 @@
         <v>8549</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3872</v>
+        <v>3981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16596</v>
+        <v>16736</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006439513979176274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002916592410448478</v>
+        <v>0.002999022650747039</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0125014535484173</v>
+        <v>0.01260677019729946</v>
       </c>
     </row>
     <row r="17">
@@ -9024,19 +9024,19 @@
         <v>33165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23015</v>
+        <v>23919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46878</v>
+        <v>45898</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04963742231212709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03444533409976511</v>
+        <v>0.03579866159494938</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0701608337659312</v>
+        <v>0.06869318035259199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -9045,19 +9045,19 @@
         <v>12780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7315</v>
+        <v>7099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21415</v>
+        <v>22161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01938176071648211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01109332246115244</v>
+        <v>0.01076639557969449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03247612752004918</v>
+        <v>0.03360751570291456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -9066,19 +9066,19 @@
         <v>45946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33768</v>
+        <v>33593</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60593</v>
+        <v>61914</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03460943265867142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02543619363650391</v>
+        <v>0.02530448836610233</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04564294226563659</v>
+        <v>0.04663780672119487</v>
       </c>
     </row>
     <row r="18">
@@ -9095,19 +9095,19 @@
         <v>158271</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>136964</v>
+        <v>137224</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183363</v>
+        <v>181913</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2368787325289786</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2049887868157323</v>
+        <v>0.2053773242798526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2744317981988826</v>
+        <v>0.2722624695888406</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -9116,19 +9116,19 @@
         <v>125809</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106092</v>
+        <v>107765</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144268</v>
+        <v>147040</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1907945666224067</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1608939229336179</v>
+        <v>0.1634299107675567</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2187898157529714</v>
+        <v>0.2229922908838809</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>281</v>
@@ -9137,19 +9137,19 @@
         <v>284080</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>255825</v>
+        <v>256677</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>314638</v>
+        <v>310751</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2139887234560393</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1927050794467624</v>
+        <v>0.1933469279560464</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2370071523242675</v>
+        <v>0.234079462755208</v>
       </c>
     </row>
     <row r="19">
@@ -9166,19 +9166,19 @@
         <v>296970</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>269586</v>
+        <v>270600</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>323266</v>
+        <v>324749</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.444463794361144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4034787203341189</v>
+        <v>0.404996803565551</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.483819010944648</v>
+        <v>0.4860384858708552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>277</v>
@@ -9187,19 +9187,19 @@
         <v>272708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>249066</v>
+        <v>247011</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>295472</v>
+        <v>298308</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4135740288230607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3777198983365243</v>
+        <v>0.3746029801314566</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4480966532745494</v>
+        <v>0.4523979459346783</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>562</v>
@@ -9208,19 +9208,19 @@
         <v>569678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>532127</v>
+        <v>531838</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>604777</v>
+        <v>604348</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4291208452262685</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4008347583380724</v>
+        <v>0.4006172516389351</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4555594059388736</v>
+        <v>0.4552363358777909</v>
       </c>
     </row>
     <row r="20">
@@ -9237,19 +9237,19 @@
         <v>177771</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153503</v>
+        <v>157013</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>202683</v>
+        <v>202640</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2660623311077353</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2297419367670346</v>
+        <v>0.2349957192794852</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3033473257221196</v>
+        <v>0.3032833005389444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -9258,19 +9258,19 @@
         <v>241524</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>217740</v>
+        <v>218070</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265696</v>
+        <v>266302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.36628207172015</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3302121618712763</v>
+        <v>0.330713415537359</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4029404279332748</v>
+        <v>0.4038587557836207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>405</v>
@@ -9279,19 +9279,19 @@
         <v>419294</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>388934</v>
+        <v>385254</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>455101</v>
+        <v>454339</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3158414846798445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2929722922318657</v>
+        <v>0.2902000965259018</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3428132761200668</v>
+        <v>0.3422398265439036</v>
       </c>
     </row>
     <row r="21">
@@ -9383,19 +9383,19 @@
         <v>6107</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2896</v>
+        <v>2932</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12548</v>
+        <v>13133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009556487260575699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004531564790414996</v>
+        <v>0.004589056432711501</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0196366991581023</v>
+        <v>0.0205524874661472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -9404,19 +9404,19 @@
         <v>5310</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12449</v>
+        <v>11551</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008209195125739864</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003123413222020385</v>
+        <v>0.003125732731144369</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01924501873154981</v>
+        <v>0.01785699946631846</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -9425,19 +9425,19 @@
         <v>11417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6093</v>
+        <v>6123</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19870</v>
+        <v>19767</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008878722708851377</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004738116471922986</v>
+        <v>0.004762031125365196</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01545252412317222</v>
+        <v>0.01537239197373611</v>
       </c>
     </row>
     <row r="23">
@@ -9454,19 +9454,19 @@
         <v>27181</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17812</v>
+        <v>17888</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40282</v>
+        <v>39345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04253624140175721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02787437390744706</v>
+        <v>0.02799357323079386</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0630384580189827</v>
+        <v>0.06157152091998827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -9475,19 +9475,19 @@
         <v>10209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4773</v>
+        <v>5052</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18741</v>
+        <v>18096</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01578135348961867</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007378979246592192</v>
+        <v>0.007809863863776426</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02897220591352281</v>
+        <v>0.02797374549942699</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -9496,19 +9496,19 @@
         <v>37390</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26839</v>
+        <v>25700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53300</v>
+        <v>52998</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02907701148172612</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02087216351620168</v>
+        <v>0.01998594677840391</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04145000661455633</v>
+        <v>0.04121490094770665</v>
       </c>
     </row>
     <row r="24">
@@ -9525,19 +9525,19 @@
         <v>151359</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>131271</v>
+        <v>129341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>174752</v>
+        <v>174014</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2368641190967593</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2054270259592386</v>
+        <v>0.2024077070736914</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.273471237938458</v>
+        <v>0.2723167270950235</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>103</v>
@@ -9546,19 +9546,19 @@
         <v>111421</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93568</v>
+        <v>92719</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133564</v>
+        <v>131147</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1722454242609042</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1446462644443574</v>
+        <v>0.1433335129043692</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2064748486757752</v>
+        <v>0.2027385556407481</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>237</v>
@@ -9567,19 +9567,19 @@
         <v>262781</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>234698</v>
+        <v>232505</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>296186</v>
+        <v>291836</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2043572413335557</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.182517921094999</v>
+        <v>0.1808123728862343</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2303354271997151</v>
+        <v>0.2269523301734032</v>
       </c>
     </row>
     <row r="25">
@@ -9596,19 +9596,19 @@
         <v>270667</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244762</v>
+        <v>243897</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>296677</v>
+        <v>295544</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4235703318915367</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3830304713135189</v>
+        <v>0.38167640828201</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4642732560630285</v>
+        <v>0.4624998222442105</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>263</v>
@@ -9617,19 +9617,19 @@
         <v>283877</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>257788</v>
+        <v>259805</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>310740</v>
+        <v>309061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4388432580858387</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3985122118855882</v>
+        <v>0.4016303181763817</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4803706874471309</v>
+        <v>0.4777747951361353</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>511</v>
@@ -9638,19 +9638,19 @@
         <v>554545</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>519654</v>
+        <v>519451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>594669</v>
+        <v>591857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.431253482195729</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4041204760891851</v>
+        <v>0.4039619224010971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4624568869163796</v>
+        <v>0.4602706020084784</v>
       </c>
     </row>
     <row r="26">
@@ -9667,19 +9667,19 @@
         <v>183699</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>161297</v>
+        <v>163043</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>210710</v>
+        <v>211090</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2874728203493712</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2524156846007832</v>
+        <v>0.2551474570933187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3297429233817569</v>
+        <v>0.3303368635977472</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>220</v>
@@ -9688,19 +9688,19 @@
         <v>236058</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>209823</v>
+        <v>212020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>260239</v>
+        <v>258831</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3649207690378986</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3243638881443113</v>
+        <v>0.3277603743973964</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4023017808972701</v>
+        <v>0.4001243418020449</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>384</v>
@@ -9709,19 +9709,19 @@
         <v>419758</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>385813</v>
+        <v>387334</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>458868</v>
+        <v>455704</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3264335422801378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3000359419155451</v>
+        <v>0.3012185695339941</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3568486766524116</v>
+        <v>0.3543883053049182</v>
       </c>
     </row>
     <row r="27">
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5486</v>
+        <v>5059</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00233346089351096</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01155319277443785</v>
+        <v>0.01065230466305905</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -9834,19 +9834,19 @@
         <v>3324</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8938</v>
+        <v>9624</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006735175643413613</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00221743435308613</v>
+        <v>0.002220302343338785</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01811358269262325</v>
+        <v>0.0195028007147403</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -9855,19 +9855,19 @@
         <v>4432</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11019</v>
+        <v>10939</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004576556843854594</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001145659523656738</v>
+        <v>0.001148996222593346</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01137890927988593</v>
+        <v>0.01129685380391689</v>
       </c>
     </row>
     <row r="29">
@@ -9884,19 +9884,19 @@
         <v>9740</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4460</v>
+        <v>4371</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18707</v>
+        <v>18094</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02051141348972853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00939267467583791</v>
+        <v>0.009203922768400366</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03939379421675673</v>
+        <v>0.03810362260283597</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -9905,19 +9905,19 @@
         <v>17721</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10046</v>
+        <v>9808</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28077</v>
+        <v>29146</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.035912439632099</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02035808310280037</v>
+        <v>0.0198758171333085</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05689755153244932</v>
+        <v>0.05906407402855198</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -9926,19 +9926,19 @@
         <v>27462</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18351</v>
+        <v>18320</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41587</v>
+        <v>40201</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02835971383037456</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01895133085994781</v>
+        <v>0.01891952713380785</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0429464739042366</v>
+        <v>0.04151578661403594</v>
       </c>
     </row>
     <row r="30">
@@ -9955,19 +9955,19 @@
         <v>93823</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>77286</v>
+        <v>75389</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>114657</v>
+        <v>110335</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1975731713147873</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.162749450074876</v>
+        <v>0.1587546143934249</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2414469922096693</v>
+        <v>0.2323440026872338</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>56</v>
@@ -9976,19 +9976,19 @@
         <v>63891</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50134</v>
+        <v>49354</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>80749</v>
+        <v>82603</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1294748386174748</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1015969810689888</v>
+        <v>0.1000161651977886</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1636386008078051</v>
+        <v>0.1673953779710273</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>140</v>
@@ -9997,19 +9997,19 @@
         <v>157713</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>134755</v>
+        <v>133282</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>185934</v>
+        <v>182676</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.162870537687319</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1391613258609989</v>
+        <v>0.1376402280996113</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1920138454391323</v>
+        <v>0.1886493139045692</v>
       </c>
     </row>
     <row r="31">
@@ -10026,19 +10026,19 @@
         <v>218363</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>194898</v>
+        <v>195164</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>240241</v>
+        <v>241956</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4598306088465153</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4104178412803378</v>
+        <v>0.4109782022812069</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5059020495766324</v>
+        <v>0.5095139722394534</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>188</v>
@@ -10047,19 +10047,19 @@
         <v>214553</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>191720</v>
+        <v>191839</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>235615</v>
+        <v>236929</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4347935565382545</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3885217056742749</v>
+        <v>0.3887634964627708</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4774754091313191</v>
+        <v>0.4801383407387709</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>384</v>
@@ -10068,19 +10068,19 @@
         <v>432915</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>399794</v>
+        <v>396668</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>466458</v>
+        <v>464818</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4470718287273711</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4128674673447877</v>
+        <v>0.4096396562240284</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4817113914997031</v>
+        <v>0.4800176265040054</v>
       </c>
     </row>
     <row r="32">
@@ -10097,19 +10097,19 @@
         <v>151842</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>130432</v>
+        <v>132146</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>174160</v>
+        <v>174468</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.319751345455458</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2746648550060453</v>
+        <v>0.2782737341729834</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3667487305180787</v>
+        <v>0.3673967713108732</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>168</v>
@@ -10118,19 +10118,19 @@
         <v>193971</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>173660</v>
+        <v>171953</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>217510</v>
+        <v>216399</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3930839895687581</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3519224223156167</v>
+        <v>0.3484629648290459</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4407848266459709</v>
+        <v>0.4385331171156865</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>301</v>
@@ -10139,19 +10139,19 @@
         <v>345813</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>313885</v>
+        <v>317652</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>376954</v>
+        <v>380194</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3571213629110808</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3241490506689329</v>
+        <v>0.3280394599094786</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3892805027000827</v>
+        <v>0.3926265405176176</v>
       </c>
     </row>
     <row r="33">
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6250</v>
+        <v>6586</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006105486291707409</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01874480113379496</v>
+        <v>0.01975502271328433</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7089</v>
+        <v>6114</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005389615402869435</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01886979450308437</v>
+        <v>0.01627314322850805</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -10285,19 +10285,19 @@
         <v>4060</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11085</v>
+        <v>9248</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005726207962448382</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001479176372399285</v>
+        <v>0.001423762669480481</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01563198325800787</v>
+        <v>0.01304168384502291</v>
       </c>
     </row>
     <row r="35">
@@ -10314,19 +10314,19 @@
         <v>5660</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1959</v>
+        <v>1966</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13065</v>
+        <v>13238</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01697735230272148</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005875594089373575</v>
+        <v>0.005896433601285392</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03918660746086216</v>
+        <v>0.03970404573224894</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -10335,19 +10335,19 @@
         <v>3100</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8254</v>
+        <v>8181</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.00825106898019537</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00263334916998268</v>
+        <v>0.00263750243678737</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02196934696567538</v>
+        <v>0.02177522784924931</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -10356,19 +10356,19 @@
         <v>8760</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4054</v>
+        <v>4090</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17173</v>
+        <v>17677</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01235404632560454</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005717661998451356</v>
+        <v>0.005767747757262341</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02421896363535702</v>
+        <v>0.02492846358764304</v>
       </c>
     </row>
     <row r="36">
@@ -10385,19 +10385,19 @@
         <v>56537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44889</v>
+        <v>43752</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71034</v>
+        <v>70567</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1695739426019415</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1346370304799067</v>
+        <v>0.1312285225022526</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.213055420455173</v>
+        <v>0.2116555939066647</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>51</v>
@@ -10409,16 +10409,16 @@
         <v>40188</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>66709</v>
+        <v>67834</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1408064547199223</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1069728776815419</v>
+        <v>0.1069722776119966</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1775660222560617</v>
+        <v>0.1805603131492862</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>106</v>
@@ -10427,19 +10427,19 @@
         <v>109436</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>90711</v>
+        <v>90133</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>130957</v>
+        <v>129632</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1543325283874559</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1279256244660648</v>
+        <v>0.1271100053152111</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1846828097143754</v>
+        <v>0.1828142848744796</v>
       </c>
     </row>
     <row r="37">
@@ -10456,19 +10456,19 @@
         <v>162011</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>144078</v>
+        <v>142716</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>181401</v>
+        <v>179183</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4859277632742022</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4321412330880529</v>
+        <v>0.428053645104718</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5440836790337118</v>
+        <v>0.5374313027942834</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>140</v>
@@ -10477,19 +10477,19 @@
         <v>151183</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>132192</v>
+        <v>134414</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>172854</v>
+        <v>172429</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4024172681839428</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3518679160208629</v>
+        <v>0.3577826964512405</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4600999651976942</v>
+        <v>0.458970712774076</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>297</v>
@@ -10498,19 +10498,19 @@
         <v>313194</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>289132</v>
+        <v>286661</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>343085</v>
+        <v>338985</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4416827443087828</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4077490224843431</v>
+        <v>0.4042636524923758</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4838365048627917</v>
+        <v>0.4780541593858305</v>
       </c>
     </row>
     <row r="38">
@@ -10527,19 +10527,19 @@
         <v>107162</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>88845</v>
+        <v>91422</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>124114</v>
+        <v>124295</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3214154555294274</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2664772329929443</v>
+        <v>0.2742075360036185</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3722599519555752</v>
+        <v>0.3728024001209119</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>156</v>
@@ -10548,19 +10548,19 @@
         <v>166480</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>147456</v>
+        <v>146877</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>187207</v>
+        <v>185771</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4431355927130701</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3924978194023959</v>
+        <v>0.3909553542263023</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4983068842462048</v>
+        <v>0.4944832452284689</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>261</v>
@@ -10569,19 +10569,19 @@
         <v>273642</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>245477</v>
+        <v>247278</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>300130</v>
+        <v>300422</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3859044730157084</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.34618446994284</v>
+        <v>0.3487238475334233</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4232589403503153</v>
+        <v>0.423670279399648</v>
       </c>
     </row>
     <row r="39">
@@ -10673,19 +10673,19 @@
         <v>4796</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1642</v>
+        <v>1686</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10692</v>
+        <v>10371</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01866254585500362</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006390400782093286</v>
+        <v>0.006559913261800596</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04160247338242952</v>
+        <v>0.040354093248055</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6068</v>
+        <v>5992</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003021716935765034</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01521432954811929</v>
+        <v>0.01502526739381874</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -10715,19 +10715,19 @@
         <v>6001</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2407</v>
+        <v>2117</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12845</v>
+        <v>12448</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009150932280425413</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003670520417959477</v>
+        <v>0.003227784001758262</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01958570218260292</v>
+        <v>0.01898093597817166</v>
       </c>
     </row>
     <row r="41">
@@ -10744,19 +10744,19 @@
         <v>7701</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3519</v>
+        <v>4184</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13204</v>
+        <v>13896</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02996459268200642</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01369404311475941</v>
+        <v>0.01628001151183736</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05137687450354103</v>
+        <v>0.05407096734434989</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -10765,19 +10765,19 @@
         <v>11355</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5100</v>
+        <v>5080</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>20498</v>
+        <v>20460</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02847235174644478</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01278790135249749</v>
+        <v>0.01273836687572669</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05139704405921584</v>
+        <v>0.05130040180293953</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -10786,19 +10786,19 @@
         <v>19056</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11850</v>
+        <v>11204</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30192</v>
+        <v>29827</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02905712037267306</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01806964422368576</v>
+        <v>0.01708451381891717</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04603662100129261</v>
+        <v>0.04547975302603932</v>
       </c>
     </row>
     <row r="42">
@@ -10815,19 +10815,19 @@
         <v>30651</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21231</v>
+        <v>22077</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>40179</v>
+        <v>41614</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.119264741745955</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08261250021901402</v>
+        <v>0.08590218959202842</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1563383610226722</v>
+        <v>0.1619217511788851</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>52</v>
@@ -10836,19 +10836,19 @@
         <v>69713</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>53631</v>
+        <v>52384</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>89393</v>
+        <v>87613</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1747963980839043</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1344746431501635</v>
+        <v>0.1313480617127172</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2241432581290189</v>
+        <v>0.2196788970531596</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>88</v>
@@ -10857,19 +10857,19 @@
         <v>100363</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>82457</v>
+        <v>80803</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>122711</v>
+        <v>119965</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1530350527039092</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1257305060017447</v>
+        <v>0.1232096539643649</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1871112986767002</v>
+        <v>0.1829241042693362</v>
       </c>
     </row>
     <row r="43">
@@ -10886,19 +10886,19 @@
         <v>132060</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>117731</v>
+        <v>117522</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>147648</v>
+        <v>146361</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5138564082786025</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4581021520455703</v>
+        <v>0.4572862444249734</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5745089223677924</v>
+        <v>0.5695023156060437</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>129</v>
@@ -10907,19 +10907,19 @@
         <v>169465</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>148989</v>
+        <v>147535</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>193242</v>
+        <v>192407</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4249145796972815</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3735731647630244</v>
+        <v>0.369927204586347</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4845310645453054</v>
+        <v>0.4824388752919024</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>283</v>
@@ -10928,19 +10928,19 @@
         <v>301525</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>277599</v>
+        <v>275326</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>332112</v>
+        <v>328654</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4597684626556359</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4232861050095004</v>
+        <v>0.4198196791527544</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.5064071123228385</v>
+        <v>0.5011347036656885</v>
       </c>
     </row>
     <row r="44">
@@ -10957,19 +10957,19 @@
         <v>81790</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>68818</v>
+        <v>69255</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>95824</v>
+        <v>94236</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3182517114384325</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.267775802890639</v>
+        <v>0.2694752874593064</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3728582816322739</v>
+        <v>0.366679052219161</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>109</v>
@@ -10978,19 +10978,19 @@
         <v>147084</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>124203</v>
+        <v>125493</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>170109</v>
+        <v>170101</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3687949535366044</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3114257310409878</v>
+        <v>0.3146584525343252</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4265298771842533</v>
+        <v>0.426507405384002</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>207</v>
@@ -10999,19 +10999,19 @@
         <v>228874</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>202967</v>
+        <v>203495</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>254514</v>
+        <v>255104</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3489884319873565</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3094852163533272</v>
+        <v>0.3102913804255824</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3880855489416285</v>
+        <v>0.3889851591036939</v>
       </c>
     </row>
     <row r="45">
@@ -11103,19 +11103,19 @@
         <v>38401</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>26968</v>
+        <v>26447</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>50875</v>
+        <v>52431</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01137072968819178</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007985499374166209</v>
+        <v>0.007831247892715172</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01506449995783424</v>
+        <v>0.01552521434245097</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>41</v>
@@ -11124,19 +11124,19 @@
         <v>43398</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>31473</v>
+        <v>31386</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>56955</v>
+        <v>58128</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01230169322295206</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008921339113020531</v>
+        <v>0.008896872650049282</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01614479292009116</v>
+        <v>0.01647722005344474</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>79</v>
@@ -11145,19 +11145,19 @@
         <v>81799</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>65431</v>
+        <v>64171</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>103779</v>
+        <v>100082</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01184636466632894</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.009475942125790076</v>
+        <v>0.009293440501535952</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01502962324544578</v>
+        <v>0.01449423333672004</v>
       </c>
     </row>
     <row r="47">
@@ -11174,19 +11174,19 @@
         <v>139981</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>119064</v>
+        <v>118505</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>166087</v>
+        <v>166252</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04144911743822949</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03525550466245571</v>
+        <v>0.03509006271218495</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04917924777431749</v>
+        <v>0.0492281735823303</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>86</v>
@@ -11195,19 +11195,19 @@
         <v>91104</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>72707</v>
+        <v>73467</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>111428</v>
+        <v>110891</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02582463709703127</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02060970365780167</v>
+        <v>0.02082524874383928</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03158577285999316</v>
+        <v>0.03143373390433096</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>216</v>
@@ -11216,19 +11216,19 @@
         <v>231085</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>199594</v>
+        <v>199201</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>260265</v>
+        <v>263762</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03346647462998691</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02890594828016045</v>
+        <v>0.02884896623022984</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03769249194699242</v>
+        <v>0.03819897678904947</v>
       </c>
     </row>
     <row r="48">
@@ -11245,19 +11245,19 @@
         <v>757181</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>710264</v>
+        <v>709388</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>812131</v>
+        <v>810351</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2242055755167192</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2103133373884734</v>
+        <v>0.2100538954180474</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2404767486677544</v>
+        <v>0.2399495274058582</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>638</v>
@@ -11266,19 +11266,19 @@
         <v>662488</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>617536</v>
+        <v>610862</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>707186</v>
+        <v>709360</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1877916817739225</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1750492101804361</v>
+        <v>0.1731573661278774</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2004617329379444</v>
+        <v>0.2010780958690853</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1352</v>
@@ -11287,19 +11287,19 @@
         <v>1419669</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1355457</v>
+        <v>1351035</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1487142</v>
+        <v>1492816</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2056014939307486</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1963020460186458</v>
+        <v>0.1956616418068065</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2153731878149791</v>
+        <v>0.2161948502958519</v>
       </c>
     </row>
     <row r="49">
@@ -11316,19 +11316,19 @@
         <v>1506272</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1450167</v>
+        <v>1449355</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1561417</v>
+        <v>1566158</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.44601581164244</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4294027659931722</v>
+        <v>0.4291624322678682</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4623446688196294</v>
+        <v>0.4637483659491048</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1400</v>
@@ -11337,19 +11337,19 @@
         <v>1482581</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1421796</v>
+        <v>1422875</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1539904</v>
+        <v>1546224</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4202584608430841</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.4030281589576698</v>
+        <v>0.4033338043249493</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4365074244323801</v>
+        <v>0.43829888663214</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2847</v>
@@ -11358,19 +11358,19 @@
         <v>2988853</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2908705</v>
+        <v>2906121</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>3082479</v>
+        <v>3071887</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.432856223187155</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.4212488412238868</v>
+        <v>0.4208746960109419</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4464154015588827</v>
+        <v>0.4448814891729024</v>
       </c>
     </row>
     <row r="50">
@@ -11387,19 +11387,19 @@
         <v>935337</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>884810</v>
+        <v>882862</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>990614</v>
+        <v>991078</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2769587657144196</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2619974398964799</v>
+        <v>0.2614206663808566</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2933266772243733</v>
+        <v>0.2934639840388975</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1157</v>
@@ -11408,19 +11408,19 @@
         <v>1248213</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1191772</v>
+        <v>1194280</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1307343</v>
+        <v>1316525</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3538235270630101</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3378244705251708</v>
+        <v>0.3385355884739605</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3705848202373231</v>
+        <v>0.3731874384283842</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2044</v>
@@ -11429,19 +11429,19 @@
         <v>2183550</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2103447</v>
+        <v>2103162</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2259979</v>
+        <v>2263929</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3162294435857805</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3046285293749607</v>
+        <v>0.3045872496219876</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3272981312186607</v>
+        <v>0.3278701208010473</v>
       </c>
     </row>
     <row r="51">
